--- a/excel/template-journal02.01.xlsx
+++ b/excel/template-journal02.01.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9596535D-FEAE-434C-824F-47A6090F41C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE6E843-741D-42EB-9F57-045BE67AB338}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,23 +246,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -557,57 +557,57 @@
     <col min="6" max="6" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -648,132 +648,132 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
     <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
     </row>
     <row r="10" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
     </row>
     <row r="13" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
